--- a/me/nexpose/1.Installation-of-Symantec-CCSVM.xlsx
+++ b/me/nexpose/1.Installation-of-Symantec-CCSVM.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rapid7\me\nexpose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B438FBD-6CCF-4F28-B899-7EF9841A8CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C49FB7-EAC0-4A46-AFAE-185AF2A2FF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Installation of Symantec CCSVM" sheetId="1" r:id="rId1"/>
+    <sheet name="Activating Symantec CCSVM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>https://docs.rapid7.com/nexpose/install/</t>
   </si>
@@ -50,6 +51,21 @@
   <si>
     <t>Vudinhquang2202@</t>
   </si>
+  <si>
+    <t>Waitting for Startup Progress</t>
+  </si>
+  <si>
+    <t>Username: vudinhquang</t>
+  </si>
+  <si>
+    <t>password: Vudinhquang2202@</t>
+  </si>
+  <si>
+    <t>Login information as input when install at "Installation of Symantec CCSVM" Sheet</t>
+  </si>
+  <si>
+    <t>Active Key(Trail key) get from mail, got trail at "Installation of Symantec CCSVM" Sheet</t>
+  </si>
 </sst>
 </file>
 
@@ -64,12 +80,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -164,9 +186,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -176,6 +197,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,6 +1143,607 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>394372</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>86064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC321D37-8F38-46B9-9852-4FD6C222C226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1387288" y="504265"/>
+          <a:ext cx="7541484" cy="6439799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>188547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7EA9F3-4A5C-46E1-BE81-3145EC9DCEB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="7239000"/>
+          <a:ext cx="11129683" cy="4570047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>187227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3972A25-C161-4093-ABC0-04469FEDAAE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1342464" y="12046324"/>
+          <a:ext cx="11163301" cy="5476403"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>106693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F7F650F-B2CE-4520-AE20-10CA5A44705D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1353670" y="18019058"/>
+          <a:ext cx="11118477" cy="4185635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>149729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF668B3F-1CDC-4D2C-DDF8-1B9967209589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="707571" y="22774275"/>
+          <a:ext cx="11198679" cy="5378954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>139527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72347C92-8A0C-0F19-B568-BB6F9013452C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="724379" y="28429325"/>
+          <a:ext cx="11113835" cy="5428702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>31458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D33EC43-3C16-90E8-D3B9-8EE465BC1661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="707571" y="34398858"/>
+          <a:ext cx="11225893" cy="5637600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>37047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3413F278-9D7C-A7EA-226C-40F18A74124E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="734785" y="40263535"/>
+          <a:ext cx="11293929" cy="5112512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>94586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11BAF20-D1D5-985F-EAA5-90B5CA1B9058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818030" y="45619148"/>
+          <a:ext cx="11026588" cy="5529438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>90565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C76B583-8ED6-E070-3E94-CD9456117C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750794" y="51950470"/>
+          <a:ext cx="11194677" cy="5671095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>458937</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>25654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8023F5EB-5103-935B-D364-4AA962E9E05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12864354" y="34973559"/>
+          <a:ext cx="13009524" cy="5438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78DB5B7-50E1-0217-FEF5-7EA761E26C89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5457265" y="38234471"/>
+          <a:ext cx="14298706" cy="1255058"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825026CC-BC6F-6C9E-D0AC-FF9BD991F2F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2117912" y="22815176"/>
+          <a:ext cx="3059206" cy="3272118"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1384,730 +2009,4602 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:T338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N444" sqref="N444"/>
+    <sheetView topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W97" sqref="W97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="6"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="T6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="T6" s="5"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="T7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="T7" s="5"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="T8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="T8" s="5"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="T9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="T9" s="5"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="T10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="T10" s="5"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="T11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="T11" s="5"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="T12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="T12" s="5"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="T13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="T13" s="5"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="T14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="T14" s="5"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="T15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="T15" s="5"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="T16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="T16" s="5"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="T17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="T17" s="5"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="T18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="T18" s="5"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="T19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="T20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="T21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="T22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="T23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="T24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="T25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="T26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="T27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="T27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="T28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="T29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="T30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="T30" s="5"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="T31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="T32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="T33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="T33" s="5"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="T34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="T34" s="5"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="T35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="T36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="T36" s="5"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="T37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="T37" s="5"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="T38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="T38" s="5"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="T39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="T39" s="5"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="T40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="T40" s="5"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="T41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="T41" s="5"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="T42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="T42" s="5"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="T43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="T43" s="5"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="T44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="T44" s="5"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="T45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="T45" s="5"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="T46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="T46" s="5"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="T47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="T47" s="5"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="T48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="T48" s="5"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="T49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="T49" s="5"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="T50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="T50" s="5"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="T51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="T51" s="5"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="T52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="T52" s="5"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="T53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="T53" s="5"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="T54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="T54" s="5"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="T55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="T55" s="5"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="T56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="T56" s="5"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-      <c r="T57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="T57" s="5"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-      <c r="T58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="T58" s="5"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-      <c r="T59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="T59" s="5"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
-      <c r="T60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="T60" s="5"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-      <c r="T61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="T61" s="5"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-      <c r="T62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="T62" s="5"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T63" s="6"/>
+      <c r="T63" s="5"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T64" s="6"/>
+      <c r="T64" s="5"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B65" s="7"/>
-      <c r="T65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="T65" s="5"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
-      <c r="T66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="T66" s="5"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-      <c r="T67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="T67" s="5"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
-      <c r="T68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="T68" s="5"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="T69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="T69" s="5"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
-      <c r="T70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="T70" s="5"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="7"/>
-      <c r="T71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="T71" s="5"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B72" s="7"/>
-      <c r="T72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="T72" s="5"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
-      <c r="T73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="T73" s="5"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
-      <c r="T74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="T74" s="5"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
-      <c r="T75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="T75" s="5"/>
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
-      <c r="T76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="T76" s="5"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="7"/>
-      <c r="T77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="T77" s="5"/>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
-      <c r="T78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="T78" s="5"/>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
-      <c r="T79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="T79" s="5"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
-      <c r="T80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="T80" s="5"/>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
-      <c r="T81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="T81" s="5"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B82" s="7"/>
-      <c r="T82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="T82" s="5"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B83" s="7"/>
-      <c r="T83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="T83" s="5"/>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B84" s="7"/>
-      <c r="T84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="T84" s="5"/>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B85" s="7"/>
-      <c r="T85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="T85" s="5"/>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B86" s="7"/>
-      <c r="T86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="T86" s="5"/>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B87" s="7"/>
-      <c r="T87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="T87" s="5"/>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B88" s="7"/>
-      <c r="T88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="T88" s="5"/>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B89" s="7"/>
-      <c r="T89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="T89" s="5"/>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B90" s="7"/>
-      <c r="T90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="T90" s="5"/>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B91" s="7"/>
-      <c r="T91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="T91" s="5"/>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B92" s="7"/>
-      <c r="T92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="T92" s="5"/>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B93" s="7"/>
-      <c r="T93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="T93" s="5"/>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B94" s="7"/>
-      <c r="T94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="T94" s="5"/>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B95" s="7"/>
-      <c r="T95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="T95" s="5"/>
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B96" s="8"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="9"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="10"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="9"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="4"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="3"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B100" s="7"/>
-      <c r="T100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="T100" s="5"/>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B101" s="7"/>
-      <c r="T101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="T101" s="5"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B102" s="7"/>
-      <c r="T102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="T102" s="5"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B103" s="7"/>
-      <c r="T103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="T103" s="5"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B104" s="7"/>
-      <c r="T104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="T104" s="5"/>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
-      <c r="T105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="T105" s="5"/>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B106" s="7"/>
-      <c r="T106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="T106" s="5"/>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B107" s="7"/>
-      <c r="T107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="T107" s="5"/>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B108" s="7"/>
-      <c r="T108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="T108" s="5"/>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B109" s="7"/>
-      <c r="T109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="T109" s="5"/>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B110" s="7"/>
-      <c r="T110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="T110" s="5"/>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B111" s="7"/>
-      <c r="T111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="T111" s="5"/>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B112" s="7"/>
-      <c r="T112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="T112" s="5"/>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B113" s="7"/>
-      <c r="T113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="T113" s="5"/>
     </row>
     <row r="114" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B114" s="7"/>
-      <c r="T114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="T114" s="5"/>
     </row>
     <row r="115" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B115" s="7"/>
-      <c r="T115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="T115" s="5"/>
     </row>
     <row r="116" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B116" s="7"/>
-      <c r="T116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="T116" s="5"/>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B117" s="7"/>
-      <c r="T117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="T117" s="5"/>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B118" s="7"/>
-      <c r="T118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="T118" s="5"/>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B119" s="7"/>
-      <c r="T119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="T119" s="5"/>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B120" s="7"/>
-      <c r="T120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="T120" s="5"/>
     </row>
     <row r="121" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B121" s="7"/>
-      <c r="T121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="T121" s="5"/>
     </row>
     <row r="122" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B122" s="7"/>
-      <c r="T122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="T122" s="5"/>
     </row>
     <row r="123" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B123" s="7"/>
-      <c r="T123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="T123" s="5"/>
     </row>
     <row r="124" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B124" s="7"/>
-      <c r="T124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="T124" s="5"/>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B125" s="7"/>
-      <c r="T125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="T125" s="5"/>
     </row>
     <row r="126" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B126" s="7"/>
-      <c r="T126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="T126" s="5"/>
     </row>
     <row r="127" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B127" s="7"/>
-      <c r="T127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="T127" s="5"/>
     </row>
     <row r="128" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B128" s="7"/>
-      <c r="T128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="T128" s="5"/>
     </row>
     <row r="129" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B129" s="7"/>
-      <c r="T129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="T129" s="5"/>
     </row>
     <row r="130" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B130" s="7"/>
-      <c r="T130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="T130" s="5"/>
     </row>
     <row r="131" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T131" s="6"/>
+      <c r="T131" s="5"/>
     </row>
     <row r="132" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="T132" s="6"/>
+      <c r="T132" s="5"/>
     </row>
     <row r="133" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B133" s="7"/>
-      <c r="T133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="T133" s="5"/>
     </row>
     <row r="134" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B134" s="7"/>
-      <c r="T134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="T134" s="5"/>
     </row>
     <row r="135" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B135" s="7"/>
-      <c r="T135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="T135" s="5"/>
     </row>
     <row r="136" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B136" s="7"/>
-      <c r="T136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="T136" s="5"/>
     </row>
     <row r="137" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B137" s="7"/>
-      <c r="T137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="T137" s="5"/>
     </row>
     <row r="138" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B138" s="7"/>
-      <c r="T138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="T138" s="5"/>
     </row>
     <row r="139" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B139" s="7"/>
-      <c r="T139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="T139" s="5"/>
     </row>
     <row r="140" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B140" s="7"/>
-      <c r="T140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="T140" s="5"/>
     </row>
     <row r="141" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B141" s="7"/>
-      <c r="T141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="T141" s="5"/>
     </row>
     <row r="142" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B142" s="7"/>
-      <c r="T142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="T142" s="5"/>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B143" s="7"/>
-      <c r="T143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="T143" s="5"/>
     </row>
     <row r="144" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B144" s="7"/>
-      <c r="T144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="T144" s="5"/>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B145" s="7"/>
-      <c r="T145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="T145" s="5"/>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B146" s="7"/>
-      <c r="T146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="T146" s="5"/>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B147" s="7"/>
-      <c r="T147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="T147" s="5"/>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B148" s="7"/>
-      <c r="T148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="T148" s="5"/>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B149" s="7"/>
-      <c r="T149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="T149" s="5"/>
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B150" s="7"/>
-      <c r="T150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="T150" s="5"/>
     </row>
     <row r="151" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B151" s="7"/>
-      <c r="T151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="T151" s="5"/>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B152" s="7"/>
-      <c r="T152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="T152" s="5"/>
     </row>
     <row r="153" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B153" s="7"/>
-      <c r="T153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="T153" s="5"/>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B154" s="7"/>
-      <c r="T154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="T154" s="5"/>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B155" s="7"/>
-      <c r="T155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="T155" s="5"/>
     </row>
     <row r="156" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B156" s="7"/>
-      <c r="T156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="T156" s="5"/>
     </row>
     <row r="157" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B157" s="7"/>
-      <c r="T157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="T157" s="5"/>
     </row>
     <row r="158" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B158" s="7"/>
-      <c r="T158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="T158" s="5"/>
     </row>
     <row r="159" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B159" s="7"/>
-      <c r="T159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="T159" s="5"/>
     </row>
     <row r="160" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B160" s="7"/>
-      <c r="T160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="T160" s="5"/>
     </row>
     <row r="161" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B161" s="7"/>
-      <c r="T161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="T161" s="5"/>
     </row>
     <row r="162" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B162" s="7"/>
-      <c r="T162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="T162" s="5"/>
     </row>
     <row r="163" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B163" s="8"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
-      <c r="M163" s="9"/>
-      <c r="N163" s="9"/>
-      <c r="O163" s="9"/>
-      <c r="P163" s="9"/>
-      <c r="Q163" s="9"/>
-      <c r="R163" s="9"/>
-      <c r="S163" s="9"/>
-      <c r="T163" s="10"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="8"/>
+      <c r="N163" s="8"/>
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+      <c r="Q163" s="8"/>
+      <c r="R163" s="8"/>
+      <c r="S163" s="8"/>
+      <c r="T163" s="9"/>
     </row>
     <row r="338" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M338" s="1" t="s">
+      <c r="M338" s="10" t="s">
         <v>7</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B89C752-F696-4EC1-BEC1-223E6EAE03DD}">
+  <dimension ref="B94:T303"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V130" sqref="V130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="3"/>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B120" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
+      <c r="S120" s="11"/>
+      <c r="T120" s="5"/>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B121" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="11"/>
+      <c r="T121" s="5"/>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B122" s="6"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="11"/>
+      <c r="T122" s="5"/>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B123" s="6"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="11"/>
+      <c r="S123" s="11"/>
+      <c r="T123" s="5"/>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B124" s="6"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11"/>
+      <c r="R124" s="11"/>
+      <c r="S124" s="11"/>
+      <c r="T124" s="5"/>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B125" s="6"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="11"/>
+      <c r="T125" s="5"/>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B126" s="6"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11"/>
+      <c r="S126" s="11"/>
+      <c r="T126" s="5"/>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B127" s="6"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="11"/>
+      <c r="T127" s="5"/>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="11"/>
+      <c r="T128" s="5"/>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B129" s="6"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
+      <c r="S129" s="11"/>
+      <c r="T129" s="5"/>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B130" s="6"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="11"/>
+      <c r="T130" s="5"/>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B131" s="6"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+      <c r="S131" s="11"/>
+      <c r="T131" s="5"/>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B132" s="6"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
+      <c r="S132" s="11"/>
+      <c r="T132" s="5"/>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B133" s="6"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
+      <c r="T133" s="5"/>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B134" s="6"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="11"/>
+      <c r="T134" s="5"/>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B135" s="6"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="11"/>
+      <c r="T135" s="5"/>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B136" s="6"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
+      <c r="T136" s="5"/>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B137" s="6"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="5"/>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B138" s="6"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="5"/>
+    </row>
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B139" s="6"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="11"/>
+      <c r="R139" s="11"/>
+      <c r="S139" s="11"/>
+      <c r="T139" s="5"/>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B140" s="6"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="5"/>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B141" s="6"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="11"/>
+      <c r="T141" s="5"/>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B142" s="6"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="5"/>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B143" s="6"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="11"/>
+      <c r="S143" s="11"/>
+      <c r="T143" s="5"/>
+    </row>
+    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B144" s="6"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="11"/>
+      <c r="S144" s="11"/>
+      <c r="T144" s="5"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B145" s="6"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11"/>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11"/>
+      <c r="S145" s="11"/>
+      <c r="T145" s="5"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B146" s="6"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+      <c r="O146" s="11"/>
+      <c r="P146" s="11"/>
+      <c r="Q146" s="11"/>
+      <c r="R146" s="11"/>
+      <c r="S146" s="11"/>
+      <c r="T146" s="5"/>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B147" s="6"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="11"/>
+      <c r="T147" s="5"/>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B148" s="6"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="5"/>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B149" s="6"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="5"/>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B150" s="6"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="11"/>
+      <c r="S150" s="11"/>
+      <c r="T150" s="5"/>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B151" s="6"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11"/>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="11"/>
+      <c r="S151" s="11"/>
+      <c r="T151" s="5"/>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B152" s="6"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="5"/>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B153" s="6"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="11"/>
+      <c r="T153" s="5"/>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B154" s="6"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+      <c r="R154" s="11"/>
+      <c r="S154" s="11"/>
+      <c r="T154" s="5"/>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B155" s="6"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+      <c r="O155" s="11"/>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="11"/>
+      <c r="S155" s="11"/>
+      <c r="T155" s="5"/>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B156" s="6"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="11"/>
+      <c r="T156" s="5"/>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B157" s="6"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+      <c r="O157" s="11"/>
+      <c r="P157" s="11"/>
+      <c r="Q157" s="11"/>
+      <c r="R157" s="11"/>
+      <c r="S157" s="11"/>
+      <c r="T157" s="5"/>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B158" s="6"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="11"/>
+      <c r="T158" s="5"/>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B159" s="6"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="11"/>
+      <c r="T159" s="5"/>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B160" s="6"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+      <c r="O160" s="11"/>
+      <c r="P160" s="11"/>
+      <c r="Q160" s="11"/>
+      <c r="R160" s="11"/>
+      <c r="S160" s="11"/>
+      <c r="T160" s="5"/>
+    </row>
+    <row r="161" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B161" s="6"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11"/>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="11"/>
+      <c r="S161" s="11"/>
+      <c r="T161" s="5"/>
+    </row>
+    <row r="162" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B162" s="6"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="11"/>
+      <c r="S162" s="11"/>
+      <c r="T162" s="5"/>
+    </row>
+    <row r="163" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B163" s="6"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="11"/>
+      <c r="M163" s="11"/>
+      <c r="N163" s="11"/>
+      <c r="O163" s="11"/>
+      <c r="P163" s="11"/>
+      <c r="Q163" s="11"/>
+      <c r="R163" s="11"/>
+      <c r="S163" s="11"/>
+      <c r="T163" s="5"/>
+    </row>
+    <row r="164" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B164" s="6"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="11"/>
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+      <c r="O164" s="11"/>
+      <c r="P164" s="11"/>
+      <c r="Q164" s="11"/>
+      <c r="R164" s="11"/>
+      <c r="S164" s="11"/>
+      <c r="T164" s="5"/>
+    </row>
+    <row r="165" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B165" s="6"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="11"/>
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+      <c r="O165" s="11"/>
+      <c r="P165" s="11"/>
+      <c r="Q165" s="11"/>
+      <c r="R165" s="11"/>
+      <c r="S165" s="11"/>
+      <c r="T165" s="5"/>
+    </row>
+    <row r="166" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B166" s="6"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+      <c r="O166" s="11"/>
+      <c r="P166" s="11"/>
+      <c r="Q166" s="11"/>
+      <c r="R166" s="11"/>
+      <c r="S166" s="11"/>
+      <c r="T166" s="5"/>
+    </row>
+    <row r="167" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B167" s="6"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="11"/>
+      <c r="Q167" s="11"/>
+      <c r="R167" s="11"/>
+      <c r="S167" s="11"/>
+      <c r="T167" s="5"/>
+    </row>
+    <row r="168" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B168" s="6"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="11"/>
+      <c r="L168" s="11"/>
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+      <c r="O168" s="11"/>
+      <c r="P168" s="11"/>
+      <c r="Q168" s="11"/>
+      <c r="R168" s="11"/>
+      <c r="S168" s="11"/>
+      <c r="T168" s="5"/>
+    </row>
+    <row r="169" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B169" s="6"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="11"/>
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="11"/>
+      <c r="Q169" s="11"/>
+      <c r="R169" s="11"/>
+      <c r="S169" s="11"/>
+      <c r="T169" s="5"/>
+    </row>
+    <row r="170" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B170" s="6"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="11"/>
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+      <c r="O170" s="11"/>
+      <c r="P170" s="11"/>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="11"/>
+      <c r="S170" s="11"/>
+      <c r="T170" s="5"/>
+    </row>
+    <row r="171" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B171" s="6"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="L171" s="11"/>
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+      <c r="O171" s="11"/>
+      <c r="P171" s="11"/>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="11"/>
+      <c r="S171" s="11"/>
+      <c r="T171" s="5"/>
+    </row>
+    <row r="172" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B172" s="6"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+      <c r="O172" s="11"/>
+      <c r="P172" s="11"/>
+      <c r="Q172" s="11"/>
+      <c r="R172" s="11"/>
+      <c r="S172" s="11"/>
+      <c r="T172" s="5"/>
+    </row>
+    <row r="173" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B173" s="6"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="11"/>
+      <c r="Q173" s="11"/>
+      <c r="R173" s="11"/>
+      <c r="S173" s="11"/>
+      <c r="T173" s="5"/>
+    </row>
+    <row r="174" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B174" s="6"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="11"/>
+      <c r="Q174" s="11"/>
+      <c r="R174" s="11"/>
+      <c r="S174" s="11"/>
+      <c r="T174" s="5"/>
+    </row>
+    <row r="175" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B175" s="6"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11"/>
+      <c r="Q175" s="11"/>
+      <c r="R175" s="11"/>
+      <c r="S175" s="11"/>
+      <c r="T175" s="5"/>
+    </row>
+    <row r="176" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B176" s="6"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="11"/>
+      <c r="O176" s="11"/>
+      <c r="P176" s="11"/>
+      <c r="Q176" s="11"/>
+      <c r="R176" s="11"/>
+      <c r="S176" s="11"/>
+      <c r="T176" s="5"/>
+    </row>
+    <row r="177" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B177" s="6"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="11"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="11"/>
+      <c r="P177" s="11"/>
+      <c r="Q177" s="11"/>
+      <c r="R177" s="11"/>
+      <c r="S177" s="11"/>
+      <c r="T177" s="5"/>
+    </row>
+    <row r="178" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B178" s="6"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+      <c r="O178" s="11"/>
+      <c r="P178" s="11"/>
+      <c r="Q178" s="11"/>
+      <c r="R178" s="11"/>
+      <c r="S178" s="11"/>
+      <c r="T178" s="5"/>
+    </row>
+    <row r="179" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B179" s="6"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="11"/>
+      <c r="S179" s="11"/>
+      <c r="T179" s="5"/>
+    </row>
+    <row r="180" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B180" s="7"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="8"/>
+      <c r="N180" s="8"/>
+      <c r="O180" s="8"/>
+      <c r="P180" s="8"/>
+      <c r="Q180" s="8"/>
+      <c r="R180" s="8"/>
+      <c r="S180" s="8"/>
+      <c r="T180" s="9"/>
+    </row>
+    <row r="183" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="3"/>
+    </row>
+    <row r="184" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B184" s="6"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="11"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="11"/>
+      <c r="O184" s="11"/>
+      <c r="P184" s="11"/>
+      <c r="Q184" s="11"/>
+      <c r="R184" s="11"/>
+      <c r="S184" s="11"/>
+      <c r="T184" s="5"/>
+    </row>
+    <row r="185" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B185" s="6"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="11"/>
+      <c r="L185" s="11"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="11"/>
+      <c r="O185" s="11"/>
+      <c r="P185" s="11"/>
+      <c r="Q185" s="11"/>
+      <c r="R185" s="11"/>
+      <c r="S185" s="11"/>
+      <c r="T185" s="5"/>
+    </row>
+    <row r="186" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B186" s="6"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
+      <c r="L186" s="11"/>
+      <c r="M186" s="11"/>
+      <c r="N186" s="11"/>
+      <c r="O186" s="11"/>
+      <c r="P186" s="11"/>
+      <c r="Q186" s="11"/>
+      <c r="R186" s="11"/>
+      <c r="S186" s="11"/>
+      <c r="T186" s="5"/>
+    </row>
+    <row r="187" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B187" s="6"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="11"/>
+      <c r="M187" s="11"/>
+      <c r="N187" s="11"/>
+      <c r="O187" s="11"/>
+      <c r="P187" s="11"/>
+      <c r="Q187" s="11"/>
+      <c r="R187" s="11"/>
+      <c r="S187" s="11"/>
+      <c r="T187" s="5"/>
+    </row>
+    <row r="188" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B188" s="6"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="11"/>
+      <c r="L188" s="11"/>
+      <c r="M188" s="11"/>
+      <c r="N188" s="11"/>
+      <c r="O188" s="11"/>
+      <c r="P188" s="11"/>
+      <c r="Q188" s="11"/>
+      <c r="R188" s="11"/>
+      <c r="S188" s="11"/>
+      <c r="T188" s="5"/>
+    </row>
+    <row r="189" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B189" s="6"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="11"/>
+      <c r="M189" s="11"/>
+      <c r="N189" s="11"/>
+      <c r="O189" s="11"/>
+      <c r="P189" s="11"/>
+      <c r="Q189" s="11"/>
+      <c r="R189" s="11"/>
+      <c r="S189" s="11"/>
+      <c r="T189" s="5"/>
+    </row>
+    <row r="190" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B190" s="6"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="11"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="11"/>
+      <c r="L190" s="11"/>
+      <c r="M190" s="11"/>
+      <c r="N190" s="11"/>
+      <c r="O190" s="11"/>
+      <c r="P190" s="11"/>
+      <c r="Q190" s="11"/>
+      <c r="R190" s="11"/>
+      <c r="S190" s="11"/>
+      <c r="T190" s="5"/>
+    </row>
+    <row r="191" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B191" s="6"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="11"/>
+      <c r="L191" s="11"/>
+      <c r="M191" s="11"/>
+      <c r="N191" s="11"/>
+      <c r="O191" s="11"/>
+      <c r="P191" s="11"/>
+      <c r="Q191" s="11"/>
+      <c r="R191" s="11"/>
+      <c r="S191" s="11"/>
+      <c r="T191" s="5"/>
+    </row>
+    <row r="192" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B192" s="6"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="11"/>
+      <c r="L192" s="11"/>
+      <c r="M192" s="11"/>
+      <c r="N192" s="11"/>
+      <c r="O192" s="11"/>
+      <c r="P192" s="11"/>
+      <c r="Q192" s="11"/>
+      <c r="R192" s="11"/>
+      <c r="S192" s="11"/>
+      <c r="T192" s="5"/>
+    </row>
+    <row r="193" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B193" s="6"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="11"/>
+      <c r="L193" s="11"/>
+      <c r="M193" s="11"/>
+      <c r="N193" s="11"/>
+      <c r="O193" s="11"/>
+      <c r="P193" s="11"/>
+      <c r="Q193" s="11"/>
+      <c r="R193" s="11"/>
+      <c r="S193" s="11"/>
+      <c r="T193" s="5"/>
+    </row>
+    <row r="194" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B194" s="6"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="11"/>
+      <c r="L194" s="11"/>
+      <c r="M194" s="11"/>
+      <c r="N194" s="11"/>
+      <c r="O194" s="11"/>
+      <c r="P194" s="11"/>
+      <c r="Q194" s="11"/>
+      <c r="R194" s="11"/>
+      <c r="S194" s="11"/>
+      <c r="T194" s="5"/>
+    </row>
+    <row r="195" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B195" s="6"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="11"/>
+      <c r="L195" s="11"/>
+      <c r="M195" s="11"/>
+      <c r="N195" s="11"/>
+      <c r="O195" s="11"/>
+      <c r="P195" s="11"/>
+      <c r="Q195" s="11"/>
+      <c r="R195" s="11"/>
+      <c r="S195" s="11"/>
+      <c r="T195" s="5"/>
+    </row>
+    <row r="196" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B196" s="6"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="11"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="11"/>
+      <c r="L196" s="11"/>
+      <c r="M196" s="11"/>
+      <c r="N196" s="11"/>
+      <c r="O196" s="11"/>
+      <c r="P196" s="11"/>
+      <c r="Q196" s="11"/>
+      <c r="R196" s="11"/>
+      <c r="S196" s="11"/>
+      <c r="T196" s="5"/>
+    </row>
+    <row r="197" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B197" s="6"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="11"/>
+      <c r="L197" s="11"/>
+      <c r="M197" s="11"/>
+      <c r="N197" s="11"/>
+      <c r="O197" s="11"/>
+      <c r="P197" s="11"/>
+      <c r="Q197" s="11"/>
+      <c r="R197" s="11"/>
+      <c r="S197" s="11"/>
+      <c r="T197" s="5"/>
+    </row>
+    <row r="198" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B198" s="6"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="11"/>
+      <c r="L198" s="11"/>
+      <c r="M198" s="11"/>
+      <c r="N198" s="11"/>
+      <c r="O198" s="11"/>
+      <c r="P198" s="11"/>
+      <c r="Q198" s="11"/>
+      <c r="R198" s="11"/>
+      <c r="S198" s="11"/>
+      <c r="T198" s="5"/>
+    </row>
+    <row r="199" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B199" s="6"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="11"/>
+      <c r="L199" s="11"/>
+      <c r="M199" s="11"/>
+      <c r="N199" s="11"/>
+      <c r="O199" s="11"/>
+      <c r="P199" s="11"/>
+      <c r="Q199" s="11"/>
+      <c r="R199" s="11"/>
+      <c r="S199" s="11"/>
+      <c r="T199" s="5"/>
+    </row>
+    <row r="200" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B200" s="6"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="11"/>
+      <c r="L200" s="11"/>
+      <c r="M200" s="11"/>
+      <c r="N200" s="11"/>
+      <c r="O200" s="11"/>
+      <c r="P200" s="11"/>
+      <c r="Q200" s="11"/>
+      <c r="R200" s="11"/>
+      <c r="S200" s="11"/>
+      <c r="T200" s="5"/>
+    </row>
+    <row r="201" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B201" s="6"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="11"/>
+      <c r="M201" s="11"/>
+      <c r="N201" s="11"/>
+      <c r="O201" s="11"/>
+      <c r="P201" s="11"/>
+      <c r="Q201" s="11"/>
+      <c r="R201" s="11"/>
+      <c r="S201" s="11"/>
+      <c r="T201" s="5"/>
+    </row>
+    <row r="202" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B202" s="6"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="11"/>
+      <c r="L202" s="11"/>
+      <c r="M202" s="11"/>
+      <c r="N202" s="11"/>
+      <c r="O202" s="11"/>
+      <c r="P202" s="11"/>
+      <c r="Q202" s="11"/>
+      <c r="R202" s="11"/>
+      <c r="S202" s="11"/>
+      <c r="T202" s="5"/>
+    </row>
+    <row r="203" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B203" s="6"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="11"/>
+      <c r="L203" s="11"/>
+      <c r="M203" s="11"/>
+      <c r="N203" s="11"/>
+      <c r="O203" s="11"/>
+      <c r="P203" s="11"/>
+      <c r="Q203" s="11"/>
+      <c r="R203" s="11"/>
+      <c r="S203" s="11"/>
+      <c r="T203" s="5"/>
+    </row>
+    <row r="204" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B204" s="6"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="11"/>
+      <c r="L204" s="11"/>
+      <c r="M204" s="11"/>
+      <c r="N204" s="11"/>
+      <c r="O204" s="11"/>
+      <c r="P204" s="11"/>
+      <c r="Q204" s="11"/>
+      <c r="R204" s="11"/>
+      <c r="S204" s="11"/>
+      <c r="T204" s="5"/>
+    </row>
+    <row r="205" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B205" s="6"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="11"/>
+      <c r="L205" s="11"/>
+      <c r="M205" s="11"/>
+      <c r="N205" s="11"/>
+      <c r="O205" s="11"/>
+      <c r="P205" s="11"/>
+      <c r="Q205" s="11"/>
+      <c r="R205" s="11"/>
+      <c r="S205" s="11"/>
+      <c r="T205" s="5"/>
+    </row>
+    <row r="206" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B206" s="6"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="11"/>
+      <c r="L206" s="11"/>
+      <c r="M206" s="11"/>
+      <c r="N206" s="11"/>
+      <c r="O206" s="11"/>
+      <c r="P206" s="11"/>
+      <c r="Q206" s="11"/>
+      <c r="R206" s="11"/>
+      <c r="S206" s="11"/>
+      <c r="T206" s="5"/>
+    </row>
+    <row r="207" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B207" s="6"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="11"/>
+      <c r="L207" s="11"/>
+      <c r="M207" s="11"/>
+      <c r="N207" s="11"/>
+      <c r="O207" s="11"/>
+      <c r="P207" s="11"/>
+      <c r="Q207" s="11"/>
+      <c r="R207" s="11"/>
+      <c r="S207" s="11"/>
+      <c r="T207" s="5"/>
+    </row>
+    <row r="208" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B208" s="6"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="11"/>
+      <c r="L208" s="11"/>
+      <c r="M208" s="11"/>
+      <c r="N208" s="11"/>
+      <c r="O208" s="11"/>
+      <c r="P208" s="11"/>
+      <c r="Q208" s="11"/>
+      <c r="R208" s="11"/>
+      <c r="S208" s="11"/>
+      <c r="T208" s="5"/>
+    </row>
+    <row r="209" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B209" s="6"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="11"/>
+      <c r="L209" s="11"/>
+      <c r="M209" s="11"/>
+      <c r="N209" s="11"/>
+      <c r="O209" s="11"/>
+      <c r="P209" s="11"/>
+      <c r="Q209" s="11"/>
+      <c r="R209" s="11"/>
+      <c r="S209" s="11"/>
+      <c r="T209" s="5"/>
+    </row>
+    <row r="210" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B210" s="6"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="11"/>
+      <c r="L210" s="11"/>
+      <c r="M210" s="11"/>
+      <c r="N210" s="11"/>
+      <c r="O210" s="11"/>
+      <c r="P210" s="11"/>
+      <c r="Q210" s="11"/>
+      <c r="R210" s="11"/>
+      <c r="S210" s="11"/>
+      <c r="T210" s="5"/>
+    </row>
+    <row r="211" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B211" s="6"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="11"/>
+      <c r="L211" s="11"/>
+      <c r="M211" s="11"/>
+      <c r="N211" s="11"/>
+      <c r="O211" s="11"/>
+      <c r="P211" s="11"/>
+      <c r="Q211" s="11"/>
+      <c r="R211" s="11"/>
+      <c r="S211" s="11"/>
+      <c r="T211" s="5"/>
+    </row>
+    <row r="212" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B212" s="6"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="11"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="11"/>
+      <c r="L212" s="11"/>
+      <c r="M212" s="11"/>
+      <c r="N212" s="11"/>
+      <c r="O212" s="11"/>
+      <c r="P212" s="11"/>
+      <c r="Q212" s="11"/>
+      <c r="R212" s="11"/>
+      <c r="S212" s="11"/>
+      <c r="T212" s="5"/>
+    </row>
+    <row r="213" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B213" s="6"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="11"/>
+      <c r="L213" s="11"/>
+      <c r="M213" s="11"/>
+      <c r="N213" s="11"/>
+      <c r="O213" s="11"/>
+      <c r="P213" s="11"/>
+      <c r="Q213" s="11"/>
+      <c r="R213" s="11"/>
+      <c r="S213" s="11"/>
+      <c r="T213" s="5"/>
+    </row>
+    <row r="214" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B214" s="6"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="11"/>
+      <c r="J214" s="11"/>
+      <c r="K214" s="11"/>
+      <c r="L214" s="11"/>
+      <c r="M214" s="11"/>
+      <c r="N214" s="11"/>
+      <c r="O214" s="11"/>
+      <c r="P214" s="11"/>
+      <c r="Q214" s="11"/>
+      <c r="R214" s="11"/>
+      <c r="S214" s="11"/>
+      <c r="T214" s="5"/>
+    </row>
+    <row r="215" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B215" s="6"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="11"/>
+      <c r="L215" s="11"/>
+      <c r="M215" s="11"/>
+      <c r="N215" s="11"/>
+      <c r="O215" s="11"/>
+      <c r="P215" s="11"/>
+      <c r="Q215" s="11"/>
+      <c r="R215" s="11"/>
+      <c r="S215" s="11"/>
+      <c r="T215" s="5"/>
+    </row>
+    <row r="216" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B216" s="6"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="11"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="11"/>
+      <c r="L216" s="11"/>
+      <c r="M216" s="11"/>
+      <c r="N216" s="11"/>
+      <c r="O216" s="11"/>
+      <c r="P216" s="11"/>
+      <c r="Q216" s="11"/>
+      <c r="R216" s="11"/>
+      <c r="S216" s="11"/>
+      <c r="T216" s="5"/>
+    </row>
+    <row r="217" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B217" s="6"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="11"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="11"/>
+      <c r="L217" s="11"/>
+      <c r="M217" s="11"/>
+      <c r="N217" s="11"/>
+      <c r="O217" s="11"/>
+      <c r="P217" s="11"/>
+      <c r="Q217" s="11"/>
+      <c r="R217" s="11"/>
+      <c r="S217" s="11"/>
+      <c r="T217" s="5"/>
+    </row>
+    <row r="218" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B218" s="6"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="11"/>
+      <c r="L218" s="11"/>
+      <c r="M218" s="11"/>
+      <c r="N218" s="11"/>
+      <c r="O218" s="11"/>
+      <c r="P218" s="11"/>
+      <c r="Q218" s="11"/>
+      <c r="R218" s="11"/>
+      <c r="S218" s="11"/>
+      <c r="T218" s="5"/>
+    </row>
+    <row r="219" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B219" s="6"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="11"/>
+      <c r="L219" s="11"/>
+      <c r="M219" s="11"/>
+      <c r="N219" s="11"/>
+      <c r="O219" s="11"/>
+      <c r="P219" s="11"/>
+      <c r="Q219" s="11"/>
+      <c r="R219" s="11"/>
+      <c r="S219" s="11"/>
+      <c r="T219" s="5"/>
+    </row>
+    <row r="220" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B220" s="6"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="11"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="11"/>
+      <c r="M220" s="11"/>
+      <c r="N220" s="11"/>
+      <c r="O220" s="11"/>
+      <c r="P220" s="11"/>
+      <c r="Q220" s="11"/>
+      <c r="R220" s="11"/>
+      <c r="S220" s="11"/>
+      <c r="T220" s="5"/>
+    </row>
+    <row r="221" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B221" s="6"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="11"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="11"/>
+      <c r="L221" s="11"/>
+      <c r="M221" s="11"/>
+      <c r="N221" s="11"/>
+      <c r="O221" s="11"/>
+      <c r="P221" s="11"/>
+      <c r="Q221" s="11"/>
+      <c r="R221" s="11"/>
+      <c r="S221" s="11"/>
+      <c r="T221" s="5"/>
+    </row>
+    <row r="222" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B222" s="6"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="11"/>
+      <c r="L222" s="11"/>
+      <c r="M222" s="11"/>
+      <c r="N222" s="11"/>
+      <c r="O222" s="11"/>
+      <c r="P222" s="11"/>
+      <c r="Q222" s="11"/>
+      <c r="R222" s="11"/>
+      <c r="S222" s="11"/>
+      <c r="T222" s="5"/>
+    </row>
+    <row r="223" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B223" s="6"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="11"/>
+      <c r="L223" s="11"/>
+      <c r="M223" s="11"/>
+      <c r="N223" s="11"/>
+      <c r="O223" s="11"/>
+      <c r="P223" s="11"/>
+      <c r="Q223" s="11"/>
+      <c r="R223" s="11"/>
+      <c r="S223" s="11"/>
+      <c r="T223" s="5"/>
+    </row>
+    <row r="224" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B224" s="6"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="11"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="11"/>
+      <c r="L224" s="11"/>
+      <c r="M224" s="11"/>
+      <c r="N224" s="11"/>
+      <c r="O224" s="11"/>
+      <c r="P224" s="11"/>
+      <c r="Q224" s="11"/>
+      <c r="R224" s="11"/>
+      <c r="S224" s="11"/>
+      <c r="T224" s="5"/>
+    </row>
+    <row r="225" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B225" s="6"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="11"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="11"/>
+      <c r="L225" s="11"/>
+      <c r="M225" s="11"/>
+      <c r="N225" s="11"/>
+      <c r="O225" s="11"/>
+      <c r="P225" s="11"/>
+      <c r="Q225" s="11"/>
+      <c r="R225" s="11"/>
+      <c r="S225" s="11"/>
+      <c r="T225" s="5"/>
+    </row>
+    <row r="226" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B226" s="6"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="11"/>
+      <c r="I226" s="11"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="11"/>
+      <c r="M226" s="11"/>
+      <c r="N226" s="11"/>
+      <c r="O226" s="11"/>
+      <c r="P226" s="11"/>
+      <c r="Q226" s="11"/>
+      <c r="R226" s="11"/>
+      <c r="S226" s="11"/>
+      <c r="T226" s="5"/>
+    </row>
+    <row r="227" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B227" s="6"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="11"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="11"/>
+      <c r="M227" s="11"/>
+      <c r="N227" s="11"/>
+      <c r="O227" s="11"/>
+      <c r="P227" s="11"/>
+      <c r="Q227" s="11"/>
+      <c r="R227" s="11"/>
+      <c r="S227" s="11"/>
+      <c r="T227" s="5"/>
+    </row>
+    <row r="228" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B228" s="6"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="11"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="11"/>
+      <c r="M228" s="11"/>
+      <c r="N228" s="11"/>
+      <c r="O228" s="11"/>
+      <c r="P228" s="11"/>
+      <c r="Q228" s="11"/>
+      <c r="R228" s="11"/>
+      <c r="S228" s="11"/>
+      <c r="T228" s="5"/>
+    </row>
+    <row r="229" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B229" s="6"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="11"/>
+      <c r="M229" s="11"/>
+      <c r="N229" s="11"/>
+      <c r="O229" s="11"/>
+      <c r="P229" s="11"/>
+      <c r="Q229" s="11"/>
+      <c r="R229" s="11"/>
+      <c r="S229" s="11"/>
+      <c r="T229" s="5"/>
+    </row>
+    <row r="230" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B230" s="6"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="11"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="11"/>
+      <c r="L230" s="11"/>
+      <c r="M230" s="11"/>
+      <c r="N230" s="11"/>
+      <c r="O230" s="11"/>
+      <c r="P230" s="11"/>
+      <c r="Q230" s="11"/>
+      <c r="R230" s="11"/>
+      <c r="S230" s="11"/>
+      <c r="T230" s="5"/>
+    </row>
+    <row r="231" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B231" s="6"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="11"/>
+      <c r="I231" s="11"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="11"/>
+      <c r="L231" s="11"/>
+      <c r="M231" s="11"/>
+      <c r="N231" s="11"/>
+      <c r="O231" s="11"/>
+      <c r="P231" s="11"/>
+      <c r="Q231" s="11"/>
+      <c r="R231" s="11"/>
+      <c r="S231" s="11"/>
+      <c r="T231" s="5"/>
+    </row>
+    <row r="232" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B232" s="6"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="11"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="11"/>
+      <c r="L232" s="11"/>
+      <c r="M232" s="11"/>
+      <c r="N232" s="11"/>
+      <c r="O232" s="11"/>
+      <c r="P232" s="11"/>
+      <c r="Q232" s="11"/>
+      <c r="R232" s="11"/>
+      <c r="S232" s="11"/>
+      <c r="T232" s="5"/>
+    </row>
+    <row r="233" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B233" s="6"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="11"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="11"/>
+      <c r="M233" s="11"/>
+      <c r="N233" s="11"/>
+      <c r="O233" s="11"/>
+      <c r="P233" s="11"/>
+      <c r="Q233" s="11"/>
+      <c r="R233" s="11"/>
+      <c r="S233" s="11"/>
+      <c r="T233" s="5"/>
+    </row>
+    <row r="234" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B234" s="6"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="11"/>
+      <c r="J234" s="11"/>
+      <c r="K234" s="11"/>
+      <c r="L234" s="11"/>
+      <c r="M234" s="11"/>
+      <c r="N234" s="11"/>
+      <c r="O234" s="11"/>
+      <c r="P234" s="11"/>
+      <c r="Q234" s="11"/>
+      <c r="R234" s="11"/>
+      <c r="S234" s="11"/>
+      <c r="T234" s="5"/>
+    </row>
+    <row r="235" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B235" s="6"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="11"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="11"/>
+      <c r="L235" s="11"/>
+      <c r="M235" s="11"/>
+      <c r="N235" s="11"/>
+      <c r="O235" s="11"/>
+      <c r="P235" s="11"/>
+      <c r="Q235" s="11"/>
+      <c r="R235" s="11"/>
+      <c r="S235" s="11"/>
+      <c r="T235" s="5"/>
+    </row>
+    <row r="236" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B236" s="6"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="11"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="11"/>
+      <c r="L236" s="11"/>
+      <c r="M236" s="11"/>
+      <c r="N236" s="11"/>
+      <c r="O236" s="11"/>
+      <c r="P236" s="11"/>
+      <c r="Q236" s="11"/>
+      <c r="R236" s="11"/>
+      <c r="S236" s="11"/>
+      <c r="T236" s="5"/>
+    </row>
+    <row r="237" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B237" s="6"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="11"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="11"/>
+      <c r="L237" s="11"/>
+      <c r="M237" s="11"/>
+      <c r="N237" s="11"/>
+      <c r="O237" s="11"/>
+      <c r="P237" s="11"/>
+      <c r="Q237" s="11"/>
+      <c r="R237" s="11"/>
+      <c r="S237" s="11"/>
+      <c r="T237" s="5"/>
+    </row>
+    <row r="238" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B238" s="6"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="11"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="11"/>
+      <c r="L238" s="11"/>
+      <c r="M238" s="11"/>
+      <c r="N238" s="11"/>
+      <c r="O238" s="11"/>
+      <c r="P238" s="11"/>
+      <c r="Q238" s="11"/>
+      <c r="R238" s="11"/>
+      <c r="S238" s="11"/>
+      <c r="T238" s="5"/>
+    </row>
+    <row r="239" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B239" s="6"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="11"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="11"/>
+      <c r="L239" s="11"/>
+      <c r="M239" s="11"/>
+      <c r="N239" s="11"/>
+      <c r="O239" s="11"/>
+      <c r="P239" s="11"/>
+      <c r="Q239" s="11"/>
+      <c r="R239" s="11"/>
+      <c r="S239" s="11"/>
+      <c r="T239" s="5"/>
+    </row>
+    <row r="240" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B240" s="6"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="11"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="11"/>
+      <c r="L240" s="11"/>
+      <c r="M240" s="11"/>
+      <c r="N240" s="11"/>
+      <c r="O240" s="11"/>
+      <c r="P240" s="11"/>
+      <c r="Q240" s="11"/>
+      <c r="R240" s="11"/>
+      <c r="S240" s="11"/>
+      <c r="T240" s="5"/>
+    </row>
+    <row r="241" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B241" s="6"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="11"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="11"/>
+      <c r="L241" s="11"/>
+      <c r="M241" s="11"/>
+      <c r="N241" s="11"/>
+      <c r="O241" s="11"/>
+      <c r="P241" s="11"/>
+      <c r="Q241" s="11"/>
+      <c r="R241" s="11"/>
+      <c r="S241" s="11"/>
+      <c r="T241" s="5"/>
+    </row>
+    <row r="242" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B242" s="6"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="11"/>
+      <c r="L242" s="11"/>
+      <c r="M242" s="11"/>
+      <c r="N242" s="11"/>
+      <c r="O242" s="11"/>
+      <c r="P242" s="11"/>
+      <c r="Q242" s="11"/>
+      <c r="R242" s="11"/>
+      <c r="S242" s="11"/>
+      <c r="T242" s="5"/>
+    </row>
+    <row r="243" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B243" s="6"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="11"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="11"/>
+      <c r="L243" s="11"/>
+      <c r="M243" s="11"/>
+      <c r="N243" s="11"/>
+      <c r="O243" s="11"/>
+      <c r="P243" s="11"/>
+      <c r="Q243" s="11"/>
+      <c r="R243" s="11"/>
+      <c r="S243" s="11"/>
+      <c r="T243" s="5"/>
+    </row>
+    <row r="244" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B244" s="6"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="11"/>
+      <c r="I244" s="11"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="11"/>
+      <c r="L244" s="11"/>
+      <c r="M244" s="11"/>
+      <c r="N244" s="11"/>
+      <c r="O244" s="11"/>
+      <c r="P244" s="11"/>
+      <c r="Q244" s="11"/>
+      <c r="R244" s="11"/>
+      <c r="S244" s="11"/>
+      <c r="T244" s="5"/>
+    </row>
+    <row r="245" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B245" s="6"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
+      <c r="I245" s="11"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="11"/>
+      <c r="L245" s="11"/>
+      <c r="M245" s="11"/>
+      <c r="N245" s="11"/>
+      <c r="O245" s="11"/>
+      <c r="P245" s="11"/>
+      <c r="Q245" s="11"/>
+      <c r="R245" s="11"/>
+      <c r="S245" s="11"/>
+      <c r="T245" s="5"/>
+    </row>
+    <row r="246" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B246" s="6"/>
+      <c r="C246" s="11"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="11"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="11"/>
+      <c r="L246" s="11"/>
+      <c r="M246" s="11"/>
+      <c r="N246" s="11"/>
+      <c r="O246" s="11"/>
+      <c r="P246" s="11"/>
+      <c r="Q246" s="11"/>
+      <c r="R246" s="11"/>
+      <c r="S246" s="11"/>
+      <c r="T246" s="5"/>
+    </row>
+    <row r="247" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B247" s="6"/>
+      <c r="C247" s="11"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="11"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="11"/>
+      <c r="L247" s="11"/>
+      <c r="M247" s="11"/>
+      <c r="N247" s="11"/>
+      <c r="O247" s="11"/>
+      <c r="P247" s="11"/>
+      <c r="Q247" s="11"/>
+      <c r="R247" s="11"/>
+      <c r="S247" s="11"/>
+      <c r="T247" s="5"/>
+    </row>
+    <row r="248" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B248" s="6"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="11"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="11"/>
+      <c r="L248" s="11"/>
+      <c r="M248" s="11"/>
+      <c r="N248" s="11"/>
+      <c r="O248" s="11"/>
+      <c r="P248" s="11"/>
+      <c r="Q248" s="11"/>
+      <c r="R248" s="11"/>
+      <c r="S248" s="11"/>
+      <c r="T248" s="5"/>
+    </row>
+    <row r="249" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B249" s="6"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="11"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="11"/>
+      <c r="L249" s="11"/>
+      <c r="M249" s="11"/>
+      <c r="N249" s="11"/>
+      <c r="O249" s="11"/>
+      <c r="P249" s="11"/>
+      <c r="Q249" s="11"/>
+      <c r="R249" s="11"/>
+      <c r="S249" s="11"/>
+      <c r="T249" s="5"/>
+    </row>
+    <row r="250" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B250" s="6"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="11"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="11"/>
+      <c r="L250" s="11"/>
+      <c r="M250" s="11"/>
+      <c r="N250" s="11"/>
+      <c r="O250" s="11"/>
+      <c r="P250" s="11"/>
+      <c r="Q250" s="11"/>
+      <c r="R250" s="11"/>
+      <c r="S250" s="11"/>
+      <c r="T250" s="5"/>
+    </row>
+    <row r="251" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B251" s="6"/>
+      <c r="C251" s="11"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="11"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="11"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="11"/>
+      <c r="L251" s="11"/>
+      <c r="M251" s="11"/>
+      <c r="N251" s="11"/>
+      <c r="O251" s="11"/>
+      <c r="P251" s="11"/>
+      <c r="Q251" s="11"/>
+      <c r="R251" s="11"/>
+      <c r="S251" s="11"/>
+      <c r="T251" s="5"/>
+    </row>
+    <row r="252" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B252" s="6"/>
+      <c r="C252" s="11"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="11"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="11"/>
+      <c r="L252" s="11"/>
+      <c r="M252" s="11"/>
+      <c r="N252" s="11"/>
+      <c r="O252" s="11"/>
+      <c r="P252" s="11"/>
+      <c r="Q252" s="11"/>
+      <c r="R252" s="11"/>
+      <c r="S252" s="11"/>
+      <c r="T252" s="5"/>
+    </row>
+    <row r="253" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B253" s="6"/>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="11"/>
+      <c r="L253" s="11"/>
+      <c r="M253" s="11"/>
+      <c r="N253" s="11"/>
+      <c r="O253" s="11"/>
+      <c r="P253" s="11"/>
+      <c r="Q253" s="11"/>
+      <c r="R253" s="11"/>
+      <c r="S253" s="11"/>
+      <c r="T253" s="5"/>
+    </row>
+    <row r="254" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B254" s="6"/>
+      <c r="C254" s="11"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="11"/>
+      <c r="G254" s="11"/>
+      <c r="H254" s="11"/>
+      <c r="I254" s="11"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="11"/>
+      <c r="L254" s="11"/>
+      <c r="M254" s="11"/>
+      <c r="N254" s="11"/>
+      <c r="O254" s="11"/>
+      <c r="P254" s="11"/>
+      <c r="Q254" s="11"/>
+      <c r="R254" s="11"/>
+      <c r="S254" s="11"/>
+      <c r="T254" s="5"/>
+    </row>
+    <row r="255" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B255" s="6"/>
+      <c r="C255" s="11"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="11"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="11"/>
+      <c r="L255" s="11"/>
+      <c r="M255" s="11"/>
+      <c r="N255" s="11"/>
+      <c r="O255" s="11"/>
+      <c r="P255" s="11"/>
+      <c r="Q255" s="11"/>
+      <c r="R255" s="11"/>
+      <c r="S255" s="11"/>
+      <c r="T255" s="5"/>
+    </row>
+    <row r="256" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B256" s="6"/>
+      <c r="C256" s="11"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="11"/>
+      <c r="I256" s="11"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="11"/>
+      <c r="L256" s="11"/>
+      <c r="M256" s="11"/>
+      <c r="N256" s="11"/>
+      <c r="O256" s="11"/>
+      <c r="P256" s="11"/>
+      <c r="Q256" s="11"/>
+      <c r="R256" s="11"/>
+      <c r="S256" s="11"/>
+      <c r="T256" s="5"/>
+    </row>
+    <row r="257" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B257" s="6"/>
+      <c r="C257" s="11"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="11"/>
+      <c r="L257" s="11"/>
+      <c r="M257" s="11"/>
+      <c r="N257" s="11"/>
+      <c r="O257" s="11"/>
+      <c r="P257" s="11"/>
+      <c r="Q257" s="11"/>
+      <c r="R257" s="11"/>
+      <c r="S257" s="11"/>
+      <c r="T257" s="5"/>
+    </row>
+    <row r="258" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B258" s="6"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="11"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="11"/>
+      <c r="L258" s="11"/>
+      <c r="M258" s="11"/>
+      <c r="N258" s="11"/>
+      <c r="O258" s="11"/>
+      <c r="P258" s="11"/>
+      <c r="Q258" s="11"/>
+      <c r="R258" s="11"/>
+      <c r="S258" s="11"/>
+      <c r="T258" s="5"/>
+    </row>
+    <row r="259" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B259" s="6"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="11"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="11"/>
+      <c r="L259" s="11"/>
+      <c r="M259" s="11"/>
+      <c r="N259" s="11"/>
+      <c r="O259" s="11"/>
+      <c r="P259" s="11"/>
+      <c r="Q259" s="11"/>
+      <c r="R259" s="11"/>
+      <c r="S259" s="11"/>
+      <c r="T259" s="5"/>
+    </row>
+    <row r="260" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B260" s="6"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="11"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="11"/>
+      <c r="L260" s="11"/>
+      <c r="M260" s="11"/>
+      <c r="N260" s="11"/>
+      <c r="O260" s="11"/>
+      <c r="P260" s="11"/>
+      <c r="Q260" s="11"/>
+      <c r="R260" s="11"/>
+      <c r="S260" s="11"/>
+      <c r="T260" s="5"/>
+    </row>
+    <row r="261" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B261" s="6"/>
+      <c r="C261" s="11"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
+      <c r="F261" s="11"/>
+      <c r="G261" s="11"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="11"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="11"/>
+      <c r="L261" s="11"/>
+      <c r="M261" s="11"/>
+      <c r="N261" s="11"/>
+      <c r="O261" s="11"/>
+      <c r="P261" s="11"/>
+      <c r="Q261" s="11"/>
+      <c r="R261" s="11"/>
+      <c r="S261" s="11"/>
+      <c r="T261" s="5"/>
+    </row>
+    <row r="262" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B262" s="6"/>
+      <c r="C262" s="11"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="11"/>
+      <c r="L262" s="11"/>
+      <c r="M262" s="11"/>
+      <c r="N262" s="11"/>
+      <c r="O262" s="11"/>
+      <c r="P262" s="11"/>
+      <c r="Q262" s="11"/>
+      <c r="R262" s="11"/>
+      <c r="S262" s="11"/>
+      <c r="T262" s="5"/>
+    </row>
+    <row r="263" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B263" s="6"/>
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="11"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="11"/>
+      <c r="L263" s="11"/>
+      <c r="M263" s="11"/>
+      <c r="N263" s="11"/>
+      <c r="O263" s="11"/>
+      <c r="P263" s="11"/>
+      <c r="Q263" s="11"/>
+      <c r="R263" s="11"/>
+      <c r="S263" s="11"/>
+      <c r="T263" s="5"/>
+    </row>
+    <row r="264" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B264" s="6"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="11"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="11"/>
+      <c r="L264" s="11"/>
+      <c r="M264" s="11"/>
+      <c r="N264" s="11"/>
+      <c r="O264" s="11"/>
+      <c r="P264" s="11"/>
+      <c r="Q264" s="11"/>
+      <c r="R264" s="11"/>
+      <c r="S264" s="11"/>
+      <c r="T264" s="5"/>
+    </row>
+    <row r="265" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B265" s="6"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="11"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="11"/>
+      <c r="M265" s="11"/>
+      <c r="N265" s="11"/>
+      <c r="O265" s="11"/>
+      <c r="P265" s="11"/>
+      <c r="Q265" s="11"/>
+      <c r="R265" s="11"/>
+      <c r="S265" s="11"/>
+      <c r="T265" s="5"/>
+    </row>
+    <row r="266" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B266" s="6"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="11"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="11"/>
+      <c r="L266" s="11"/>
+      <c r="M266" s="11"/>
+      <c r="N266" s="11"/>
+      <c r="O266" s="11"/>
+      <c r="P266" s="11"/>
+      <c r="Q266" s="11"/>
+      <c r="R266" s="11"/>
+      <c r="S266" s="11"/>
+      <c r="T266" s="5"/>
+    </row>
+    <row r="267" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B267" s="6"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="11"/>
+      <c r="R267" s="11"/>
+      <c r="S267" s="11"/>
+      <c r="T267" s="5"/>
+    </row>
+    <row r="268" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B268" s="6"/>
+      <c r="C268" s="11"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="11"/>
+      <c r="I268" s="11"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="11"/>
+      <c r="L268" s="11"/>
+      <c r="M268" s="11"/>
+      <c r="N268" s="11"/>
+      <c r="O268" s="11"/>
+      <c r="P268" s="11"/>
+      <c r="Q268" s="11"/>
+      <c r="R268" s="11"/>
+      <c r="S268" s="11"/>
+      <c r="T268" s="5"/>
+    </row>
+    <row r="269" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B269" s="6"/>
+      <c r="C269" s="11"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="11"/>
+      <c r="G269" s="11"/>
+      <c r="H269" s="11"/>
+      <c r="I269" s="11"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="11"/>
+      <c r="L269" s="11"/>
+      <c r="M269" s="11"/>
+      <c r="N269" s="11"/>
+      <c r="O269" s="11"/>
+      <c r="P269" s="11"/>
+      <c r="Q269" s="11"/>
+      <c r="R269" s="11"/>
+      <c r="S269" s="11"/>
+      <c r="T269" s="5"/>
+    </row>
+    <row r="270" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B270" s="6"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11"/>
+      <c r="I270" s="11"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="11"/>
+      <c r="L270" s="11"/>
+      <c r="M270" s="11"/>
+      <c r="N270" s="11"/>
+      <c r="O270" s="11"/>
+      <c r="P270" s="11"/>
+      <c r="Q270" s="11"/>
+      <c r="R270" s="11"/>
+      <c r="S270" s="11"/>
+      <c r="T270" s="5"/>
+    </row>
+    <row r="271" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B271" s="6"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="11"/>
+      <c r="L271" s="11"/>
+      <c r="M271" s="11"/>
+      <c r="N271" s="11"/>
+      <c r="O271" s="11"/>
+      <c r="P271" s="11"/>
+      <c r="Q271" s="11"/>
+      <c r="R271" s="11"/>
+      <c r="S271" s="11"/>
+      <c r="T271" s="5"/>
+    </row>
+    <row r="272" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B272" s="6"/>
+      <c r="C272" s="11"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="11"/>
+      <c r="I272" s="11"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="11"/>
+      <c r="L272" s="11"/>
+      <c r="M272" s="11"/>
+      <c r="N272" s="11"/>
+      <c r="O272" s="11"/>
+      <c r="P272" s="11"/>
+      <c r="Q272" s="11"/>
+      <c r="R272" s="11"/>
+      <c r="S272" s="11"/>
+      <c r="T272" s="5"/>
+    </row>
+    <row r="273" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B273" s="6"/>
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="11"/>
+      <c r="I273" s="11"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
+      <c r="M273" s="11"/>
+      <c r="N273" s="11"/>
+      <c r="O273" s="11"/>
+      <c r="P273" s="11"/>
+      <c r="Q273" s="11"/>
+      <c r="R273" s="11"/>
+      <c r="S273" s="11"/>
+      <c r="T273" s="5"/>
+    </row>
+    <row r="274" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B274" s="6"/>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="11"/>
+      <c r="I274" s="11"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="11"/>
+      <c r="L274" s="11"/>
+      <c r="M274" s="11"/>
+      <c r="N274" s="11"/>
+      <c r="O274" s="11"/>
+      <c r="P274" s="11"/>
+      <c r="Q274" s="11"/>
+      <c r="R274" s="11"/>
+      <c r="S274" s="11"/>
+      <c r="T274" s="5"/>
+    </row>
+    <row r="275" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B275" s="6"/>
+      <c r="C275" s="11"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="11"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="11"/>
+      <c r="I275" s="11"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="11"/>
+      <c r="L275" s="11"/>
+      <c r="M275" s="11"/>
+      <c r="N275" s="11"/>
+      <c r="O275" s="11"/>
+      <c r="P275" s="11"/>
+      <c r="Q275" s="11"/>
+      <c r="R275" s="11"/>
+      <c r="S275" s="11"/>
+      <c r="T275" s="5"/>
+    </row>
+    <row r="276" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B276" s="6"/>
+      <c r="C276" s="11"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
+      <c r="F276" s="11"/>
+      <c r="G276" s="11"/>
+      <c r="H276" s="11"/>
+      <c r="I276" s="11"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="11"/>
+      <c r="L276" s="11"/>
+      <c r="M276" s="11"/>
+      <c r="N276" s="11"/>
+      <c r="O276" s="11"/>
+      <c r="P276" s="11"/>
+      <c r="Q276" s="11"/>
+      <c r="R276" s="11"/>
+      <c r="S276" s="11"/>
+      <c r="T276" s="5"/>
+    </row>
+    <row r="277" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B277" s="6"/>
+      <c r="C277" s="11"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="11"/>
+      <c r="I277" s="11"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="11"/>
+      <c r="L277" s="11"/>
+      <c r="M277" s="11"/>
+      <c r="N277" s="11"/>
+      <c r="O277" s="11"/>
+      <c r="P277" s="11"/>
+      <c r="Q277" s="11"/>
+      <c r="R277" s="11"/>
+      <c r="S277" s="11"/>
+      <c r="T277" s="5"/>
+    </row>
+    <row r="278" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B278" s="6"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="11"/>
+      <c r="I278" s="11"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="11"/>
+      <c r="L278" s="11"/>
+      <c r="M278" s="11"/>
+      <c r="N278" s="11"/>
+      <c r="O278" s="11"/>
+      <c r="P278" s="11"/>
+      <c r="Q278" s="11"/>
+      <c r="R278" s="11"/>
+      <c r="S278" s="11"/>
+      <c r="T278" s="5"/>
+    </row>
+    <row r="279" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B279" s="6"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="11"/>
+      <c r="I279" s="11"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="11"/>
+      <c r="L279" s="11"/>
+      <c r="M279" s="11"/>
+      <c r="N279" s="11"/>
+      <c r="O279" s="11"/>
+      <c r="P279" s="11"/>
+      <c r="Q279" s="11"/>
+      <c r="R279" s="11"/>
+      <c r="S279" s="11"/>
+      <c r="T279" s="5"/>
+    </row>
+    <row r="280" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B280" s="6"/>
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
+      <c r="G280" s="11"/>
+      <c r="H280" s="11"/>
+      <c r="I280" s="11"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="11"/>
+      <c r="L280" s="11"/>
+      <c r="M280" s="11"/>
+      <c r="N280" s="11"/>
+      <c r="O280" s="11"/>
+      <c r="P280" s="11"/>
+      <c r="Q280" s="11"/>
+      <c r="R280" s="11"/>
+      <c r="S280" s="11"/>
+      <c r="T280" s="5"/>
+    </row>
+    <row r="281" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B281" s="6"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="11"/>
+      <c r="I281" s="11"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="11"/>
+      <c r="L281" s="11"/>
+      <c r="M281" s="11"/>
+      <c r="N281" s="11"/>
+      <c r="O281" s="11"/>
+      <c r="P281" s="11"/>
+      <c r="Q281" s="11"/>
+      <c r="R281" s="11"/>
+      <c r="S281" s="11"/>
+      <c r="T281" s="5"/>
+    </row>
+    <row r="282" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B282" s="6"/>
+      <c r="C282" s="11"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
+      <c r="G282" s="11"/>
+      <c r="H282" s="11"/>
+      <c r="I282" s="11"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="11"/>
+      <c r="L282" s="11"/>
+      <c r="M282" s="11"/>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
+      <c r="P282" s="11"/>
+      <c r="Q282" s="11"/>
+      <c r="R282" s="11"/>
+      <c r="S282" s="11"/>
+      <c r="T282" s="5"/>
+    </row>
+    <row r="283" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B283" s="6"/>
+      <c r="C283" s="11"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
+      <c r="F283" s="11"/>
+      <c r="G283" s="11"/>
+      <c r="H283" s="11"/>
+      <c r="I283" s="11"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="11"/>
+      <c r="L283" s="11"/>
+      <c r="M283" s="11"/>
+      <c r="N283" s="11"/>
+      <c r="O283" s="11"/>
+      <c r="P283" s="11"/>
+      <c r="Q283" s="11"/>
+      <c r="R283" s="11"/>
+      <c r="S283" s="11"/>
+      <c r="T283" s="5"/>
+    </row>
+    <row r="284" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B284" s="6"/>
+      <c r="C284" s="11"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11"/>
+      <c r="G284" s="11"/>
+      <c r="H284" s="11"/>
+      <c r="I284" s="11"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="11"/>
+      <c r="L284" s="11"/>
+      <c r="M284" s="11"/>
+      <c r="N284" s="11"/>
+      <c r="O284" s="11"/>
+      <c r="P284" s="11"/>
+      <c r="Q284" s="11"/>
+      <c r="R284" s="11"/>
+      <c r="S284" s="11"/>
+      <c r="T284" s="5"/>
+    </row>
+    <row r="285" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B285" s="6"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="11"/>
+      <c r="I285" s="11"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="11"/>
+      <c r="L285" s="11"/>
+      <c r="M285" s="11"/>
+      <c r="N285" s="11"/>
+      <c r="O285" s="11"/>
+      <c r="P285" s="11"/>
+      <c r="Q285" s="11"/>
+      <c r="R285" s="11"/>
+      <c r="S285" s="11"/>
+      <c r="T285" s="5"/>
+    </row>
+    <row r="286" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B286" s="6"/>
+      <c r="C286" s="11"/>
+      <c r="D286" s="11"/>
+      <c r="E286" s="11"/>
+      <c r="F286" s="11"/>
+      <c r="G286" s="11"/>
+      <c r="H286" s="11"/>
+      <c r="I286" s="11"/>
+      <c r="J286" s="11"/>
+      <c r="K286" s="11"/>
+      <c r="L286" s="11"/>
+      <c r="M286" s="11"/>
+      <c r="N286" s="11"/>
+      <c r="O286" s="11"/>
+      <c r="P286" s="11"/>
+      <c r="Q286" s="11"/>
+      <c r="R286" s="11"/>
+      <c r="S286" s="11"/>
+      <c r="T286" s="5"/>
+    </row>
+    <row r="287" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B287" s="6"/>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="11"/>
+      <c r="I287" s="11"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="11"/>
+      <c r="L287" s="11"/>
+      <c r="M287" s="11"/>
+      <c r="N287" s="11"/>
+      <c r="O287" s="11"/>
+      <c r="P287" s="11"/>
+      <c r="Q287" s="11"/>
+      <c r="R287" s="11"/>
+      <c r="S287" s="11"/>
+      <c r="T287" s="5"/>
+    </row>
+    <row r="288" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B288" s="6"/>
+      <c r="C288" s="11"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="11"/>
+      <c r="H288" s="11"/>
+      <c r="I288" s="11"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="11"/>
+      <c r="L288" s="11"/>
+      <c r="M288" s="11"/>
+      <c r="N288" s="11"/>
+      <c r="O288" s="11"/>
+      <c r="P288" s="11"/>
+      <c r="Q288" s="11"/>
+      <c r="R288" s="11"/>
+      <c r="S288" s="11"/>
+      <c r="T288" s="5"/>
+    </row>
+    <row r="289" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B289" s="6"/>
+      <c r="C289" s="11"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11"/>
+      <c r="G289" s="11"/>
+      <c r="H289" s="11"/>
+      <c r="I289" s="11"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="11"/>
+      <c r="L289" s="11"/>
+      <c r="M289" s="11"/>
+      <c r="N289" s="11"/>
+      <c r="O289" s="11"/>
+      <c r="P289" s="11"/>
+      <c r="Q289" s="11"/>
+      <c r="R289" s="11"/>
+      <c r="S289" s="11"/>
+      <c r="T289" s="5"/>
+    </row>
+    <row r="290" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B290" s="6"/>
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
+      <c r="H290" s="11"/>
+      <c r="I290" s="11"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="11"/>
+      <c r="L290" s="11"/>
+      <c r="M290" s="11"/>
+      <c r="N290" s="11"/>
+      <c r="O290" s="11"/>
+      <c r="P290" s="11"/>
+      <c r="Q290" s="11"/>
+      <c r="R290" s="11"/>
+      <c r="S290" s="11"/>
+      <c r="T290" s="5"/>
+    </row>
+    <row r="291" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B291" s="6"/>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
+      <c r="H291" s="11"/>
+      <c r="I291" s="11"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="11"/>
+      <c r="L291" s="11"/>
+      <c r="M291" s="11"/>
+      <c r="N291" s="11"/>
+      <c r="O291" s="11"/>
+      <c r="P291" s="11"/>
+      <c r="Q291" s="11"/>
+      <c r="R291" s="11"/>
+      <c r="S291" s="11"/>
+      <c r="T291" s="5"/>
+    </row>
+    <row r="292" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B292" s="6"/>
+      <c r="C292" s="11"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
+      <c r="F292" s="11"/>
+      <c r="G292" s="11"/>
+      <c r="H292" s="11"/>
+      <c r="I292" s="11"/>
+      <c r="J292" s="11"/>
+      <c r="K292" s="11"/>
+      <c r="L292" s="11"/>
+      <c r="M292" s="11"/>
+      <c r="N292" s="11"/>
+      <c r="O292" s="11"/>
+      <c r="P292" s="11"/>
+      <c r="Q292" s="11"/>
+      <c r="R292" s="11"/>
+      <c r="S292" s="11"/>
+      <c r="T292" s="5"/>
+    </row>
+    <row r="293" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B293" s="6"/>
+      <c r="C293" s="11"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11"/>
+      <c r="G293" s="11"/>
+      <c r="H293" s="11"/>
+      <c r="I293" s="11"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="11"/>
+      <c r="L293" s="11"/>
+      <c r="M293" s="11"/>
+      <c r="N293" s="11"/>
+      <c r="O293" s="11"/>
+      <c r="P293" s="11"/>
+      <c r="Q293" s="11"/>
+      <c r="R293" s="11"/>
+      <c r="S293" s="11"/>
+      <c r="T293" s="5"/>
+    </row>
+    <row r="294" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B294" s="6"/>
+      <c r="C294" s="11"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="11"/>
+      <c r="F294" s="11"/>
+      <c r="G294" s="11"/>
+      <c r="H294" s="11"/>
+      <c r="I294" s="11"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="11"/>
+      <c r="L294" s="11"/>
+      <c r="M294" s="11"/>
+      <c r="N294" s="11"/>
+      <c r="O294" s="11"/>
+      <c r="P294" s="11"/>
+      <c r="Q294" s="11"/>
+      <c r="R294" s="11"/>
+      <c r="S294" s="11"/>
+      <c r="T294" s="5"/>
+    </row>
+    <row r="295" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B295" s="6"/>
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11"/>
+      <c r="F295" s="11"/>
+      <c r="G295" s="11"/>
+      <c r="H295" s="11"/>
+      <c r="I295" s="11"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="11"/>
+      <c r="L295" s="11"/>
+      <c r="M295" s="11"/>
+      <c r="N295" s="11"/>
+      <c r="O295" s="11"/>
+      <c r="P295" s="11"/>
+      <c r="Q295" s="11"/>
+      <c r="R295" s="11"/>
+      <c r="S295" s="11"/>
+      <c r="T295" s="5"/>
+    </row>
+    <row r="296" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B296" s="6"/>
+      <c r="C296" s="11"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="11"/>
+      <c r="F296" s="11"/>
+      <c r="G296" s="11"/>
+      <c r="H296" s="11"/>
+      <c r="I296" s="11"/>
+      <c r="J296" s="11"/>
+      <c r="K296" s="11"/>
+      <c r="L296" s="11"/>
+      <c r="M296" s="11"/>
+      <c r="N296" s="11"/>
+      <c r="O296" s="11"/>
+      <c r="P296" s="11"/>
+      <c r="Q296" s="11"/>
+      <c r="R296" s="11"/>
+      <c r="S296" s="11"/>
+      <c r="T296" s="5"/>
+    </row>
+    <row r="297" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B297" s="6"/>
+      <c r="C297" s="11"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
+      <c r="F297" s="11"/>
+      <c r="G297" s="11"/>
+      <c r="H297" s="11"/>
+      <c r="I297" s="11"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="11"/>
+      <c r="L297" s="11"/>
+      <c r="M297" s="11"/>
+      <c r="N297" s="11"/>
+      <c r="O297" s="11"/>
+      <c r="P297" s="11"/>
+      <c r="Q297" s="11"/>
+      <c r="R297" s="11"/>
+      <c r="S297" s="11"/>
+      <c r="T297" s="5"/>
+    </row>
+    <row r="298" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B298" s="6"/>
+      <c r="C298" s="11"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
+      <c r="F298" s="11"/>
+      <c r="G298" s="11"/>
+      <c r="H298" s="11"/>
+      <c r="I298" s="11"/>
+      <c r="J298" s="11"/>
+      <c r="K298" s="11"/>
+      <c r="L298" s="11"/>
+      <c r="M298" s="11"/>
+      <c r="N298" s="11"/>
+      <c r="O298" s="11"/>
+      <c r="P298" s="11"/>
+      <c r="Q298" s="11"/>
+      <c r="R298" s="11"/>
+      <c r="S298" s="11"/>
+      <c r="T298" s="5"/>
+    </row>
+    <row r="299" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B299" s="6"/>
+      <c r="C299" s="11"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
+      <c r="G299" s="11"/>
+      <c r="H299" s="11"/>
+      <c r="I299" s="11"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="11"/>
+      <c r="L299" s="11"/>
+      <c r="M299" s="11"/>
+      <c r="N299" s="11"/>
+      <c r="O299" s="11"/>
+      <c r="P299" s="11"/>
+      <c r="Q299" s="11"/>
+      <c r="R299" s="11"/>
+      <c r="S299" s="11"/>
+      <c r="T299" s="5"/>
+    </row>
+    <row r="300" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B300" s="6"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
+      <c r="H300" s="11"/>
+      <c r="I300" s="11"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="11"/>
+      <c r="L300" s="11"/>
+      <c r="M300" s="11"/>
+      <c r="N300" s="11"/>
+      <c r="O300" s="11"/>
+      <c r="P300" s="11"/>
+      <c r="Q300" s="11"/>
+      <c r="R300" s="11"/>
+      <c r="S300" s="11"/>
+      <c r="T300" s="5"/>
+    </row>
+    <row r="301" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B301" s="6"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
+      <c r="H301" s="11"/>
+      <c r="I301" s="11"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="11"/>
+      <c r="L301" s="11"/>
+      <c r="M301" s="11"/>
+      <c r="N301" s="11"/>
+      <c r="O301" s="11"/>
+      <c r="P301" s="11"/>
+      <c r="Q301" s="11"/>
+      <c r="R301" s="11"/>
+      <c r="S301" s="11"/>
+      <c r="T301" s="5"/>
+    </row>
+    <row r="302" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B302" s="6"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11"/>
+      <c r="G302" s="11"/>
+      <c r="H302" s="11"/>
+      <c r="I302" s="11"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="11"/>
+      <c r="L302" s="11"/>
+      <c r="M302" s="11"/>
+      <c r="N302" s="11"/>
+      <c r="O302" s="11"/>
+      <c r="P302" s="11"/>
+      <c r="Q302" s="11"/>
+      <c r="R302" s="11"/>
+      <c r="S302" s="11"/>
+      <c r="T302" s="5"/>
+    </row>
+    <row r="303" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B303" s="7"/>
+      <c r="C303" s="8"/>
+      <c r="D303" s="8"/>
+      <c r="E303" s="8"/>
+      <c r="F303" s="8"/>
+      <c r="G303" s="8"/>
+      <c r="H303" s="8"/>
+      <c r="I303" s="8"/>
+      <c r="J303" s="8"/>
+      <c r="K303" s="8"/>
+      <c r="L303" s="8"/>
+      <c r="M303" s="8"/>
+      <c r="N303" s="8"/>
+      <c r="O303" s="8"/>
+      <c r="P303" s="8"/>
+      <c r="Q303" s="8"/>
+      <c r="R303" s="8"/>
+      <c r="S303" s="8"/>
+      <c r="T303" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
